--- a/embeded-hw3/tables/out.xlsx
+++ b/embeded-hw3/tables/out.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Github\Embeded-HW\embeded-hw3\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB36E19C-70F7-4703-BCD9-61E99847C8E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>index</t>
   </si>
@@ -36,15 +50,18 @@
   <si>
     <t>horner optimized</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -81,33 +98,60 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G101" totalsRowShown="0">
-  <autoFilter ref="A1:G101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G102" totalsRowCount="1">
+  <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="index" dataDxfId="0"/>
-    <tableColumn id="2" name="mixed" dataDxfId="1"/>
-    <tableColumn id="3" name="mixed optimized" dataDxfId="1"/>
-    <tableColumn id="4" name="poly" dataDxfId="1"/>
-    <tableColumn id="5" name="poly optimized" dataDxfId="1"/>
-    <tableColumn id="6" name="horner" dataDxfId="1"/>
-    <tableColumn id="7" name="horner optimized" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" totalsRowLabel="Total" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mixed" totalsRowFunction="average" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="mixed optimized" totalsRowFunction="average" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="poly" totalsRowFunction="average" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="poly optimized" totalsRowFunction="average" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="horner" totalsRowFunction="average" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="horner optimized" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -156,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +232,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +284,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +477,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,58 +518,58 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2.051115</v>
+        <v>2.0511149999999998</v>
       </c>
       <c r="C2" s="2">
-        <v>1.587792</v>
+        <v>1.5877920000000001</v>
       </c>
       <c r="D2" s="2">
-        <v>3.749877</v>
+        <v>3.7498770000000001</v>
       </c>
       <c r="E2" s="2">
         <v>2.35731</v>
       </c>
       <c r="F2" s="2">
-        <v>4.844847</v>
+        <v>4.8448469999999997</v>
       </c>
       <c r="G2" s="2">
-        <v>3.443516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>3.4435159999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2.041899</v>
+        <v>2.0418989999999999</v>
       </c>
       <c r="C3" s="2">
         <v>1.608941</v>
       </c>
       <c r="D3" s="2">
-        <v>3.767606</v>
+        <v>3.7676059999999998</v>
       </c>
       <c r="E3" s="2">
         <v>2.35846</v>
       </c>
       <c r="F3" s="2">
-        <v>4.869661</v>
+        <v>4.8696609999999998</v>
       </c>
       <c r="G3" s="2">
-        <v>3.442124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>3.4421240000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2.032714</v>
+        <v>2.0327139999999999</v>
       </c>
       <c r="C4" s="2">
         <v>1.593477</v>
@@ -490,13 +581,13 @@
         <v>2.356055</v>
       </c>
       <c r="F4" s="2">
-        <v>4.868269</v>
+        <v>4.8682689999999997</v>
       </c>
       <c r="G4" s="2">
-        <v>3.43931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>3.4393099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -507,19 +598,19 @@
         <v>1.595566</v>
       </c>
       <c r="D5" s="2">
-        <v>3.772862</v>
+        <v>3.7728619999999999</v>
       </c>
       <c r="E5" s="2">
-        <v>2.366345</v>
+        <v>2.3663449999999999</v>
       </c>
       <c r="F5" s="2">
-        <v>4.848448</v>
+        <v>4.8484480000000003</v>
       </c>
       <c r="G5" s="2">
-        <v>3.439336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>3.4393359999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -533,108 +624,108 @@
         <v>3.755341</v>
       </c>
       <c r="E6" s="2">
-        <v>2.358666</v>
+        <v>2.3586659999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>4.852155</v>
+        <v>4.8521549999999998</v>
       </c>
       <c r="G6" s="2">
-        <v>3.438054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>3.4380540000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2.05941</v>
+        <v>2.0594100000000002</v>
       </c>
       <c r="C7" s="2">
-        <v>1.600083</v>
+        <v>1.6000829999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>3.751967</v>
+        <v>3.7519670000000001</v>
       </c>
       <c r="E7" s="2">
         <v>2.356506</v>
       </c>
       <c r="F7" s="2">
-        <v>4.843804</v>
+        <v>4.8438040000000004</v>
       </c>
       <c r="G7" s="2">
-        <v>3.456625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>3.4566249999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2.050114</v>
+        <v>2.0501140000000002</v>
       </c>
       <c r="C8" s="2">
-        <v>1.598863</v>
+        <v>1.5988629999999999</v>
       </c>
       <c r="D8" s="2">
         <v>3.763693</v>
       </c>
       <c r="E8" s="2">
-        <v>2.363014</v>
+        <v>2.3630140000000002</v>
       </c>
       <c r="F8" s="2">
-        <v>4.854528</v>
+        <v>4.8545280000000002</v>
       </c>
       <c r="G8" s="2">
-        <v>3.44851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>3.4485100000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2.033027</v>
+        <v>2.0330270000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>1.593705</v>
+        <v>1.5937049999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>3.757852</v>
+        <v>3.7578520000000002</v>
       </c>
       <c r="E9" s="2">
-        <v>2.357981</v>
+        <v>2.3579810000000001</v>
       </c>
       <c r="F9" s="2">
-        <v>4.859097</v>
+        <v>4.8590970000000002</v>
       </c>
       <c r="G9" s="2">
-        <v>3.441448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>3.4414479999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>2.035976</v>
+        <v>2.0359759999999998</v>
       </c>
       <c r="C10" s="2">
         <v>1.594781</v>
       </c>
       <c r="D10" s="2">
-        <v>3.779267</v>
+        <v>3.7792669999999999</v>
       </c>
       <c r="E10" s="2">
         <v>2.364071</v>
       </c>
       <c r="F10" s="2">
-        <v>4.870291</v>
+        <v>4.8702909999999999</v>
       </c>
       <c r="G10" s="2">
-        <v>3.471811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>3.4718110000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -642,76 +733,76 @@
         <v>2.036057</v>
       </c>
       <c r="C11" s="2">
-        <v>1.596178</v>
+        <v>1.5961780000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>3.759939</v>
+        <v>3.7599390000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>2.356016</v>
+        <v>2.3560159999999999</v>
       </c>
       <c r="F11" s="2">
-        <v>4.849579</v>
+        <v>4.8495790000000003</v>
       </c>
       <c r="G11" s="2">
         <v>3.450402</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>2.058108</v>
+        <v>2.0581079999999998</v>
       </c>
       <c r="C12" s="2">
-        <v>1.587341</v>
+        <v>1.5873409999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>3.769901</v>
+        <v>3.7699009999999999</v>
       </c>
       <c r="E12" s="2">
-        <v>2.353029</v>
+        <v>2.3530289999999998</v>
       </c>
       <c r="F12" s="2">
-        <v>4.852744</v>
+        <v>4.8527440000000004</v>
       </c>
       <c r="G12" s="2">
         <v>3.453166</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>2.041872</v>
+        <v>2.0418720000000001</v>
       </c>
       <c r="C13" s="2">
         <v>1.592746</v>
       </c>
       <c r="D13" s="2">
-        <v>3.757472</v>
+        <v>3.7574719999999999</v>
       </c>
       <c r="E13" s="2">
         <v>2.369437</v>
       </c>
       <c r="F13" s="2">
-        <v>4.878537</v>
+        <v>4.8785369999999997</v>
       </c>
       <c r="G13" s="2">
-        <v>3.444155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>3.4441549999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>2.049958</v>
+        <v>2.0499580000000002</v>
       </c>
       <c r="C14" s="2">
-        <v>1.592305</v>
+        <v>1.5923050000000001</v>
       </c>
       <c r="D14" s="2">
         <v>3.759258</v>
@@ -720,13 +811,13 @@
         <v>2.367324</v>
       </c>
       <c r="F14" s="2">
-        <v>4.85299</v>
+        <v>4.8529900000000001</v>
       </c>
       <c r="G14" s="2">
-        <v>3.455294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>3.4552939999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -734,68 +825,68 @@
         <v>2.040937</v>
       </c>
       <c r="C15" s="2">
-        <v>1.599568</v>
+        <v>1.5995680000000001</v>
       </c>
       <c r="D15" s="2">
-        <v>3.778568</v>
+        <v>3.7785679999999999</v>
       </c>
       <c r="E15" s="2">
-        <v>2.367253</v>
+        <v>2.3672529999999998</v>
       </c>
       <c r="F15" s="2">
-        <v>4.870339</v>
+        <v>4.8703390000000004</v>
       </c>
       <c r="G15" s="2">
         <v>3.452016</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>2.057282</v>
+        <v>2.0572819999999998</v>
       </c>
       <c r="C16" s="2">
-        <v>1.589344</v>
+        <v>1.5893440000000001</v>
       </c>
       <c r="D16" s="2">
-        <v>3.805865</v>
+        <v>3.8058649999999998</v>
       </c>
       <c r="E16" s="2">
-        <v>2.388686</v>
+        <v>2.3886859999999999</v>
       </c>
       <c r="F16" s="2">
-        <v>4.895028</v>
+        <v>4.8950279999999999</v>
       </c>
       <c r="G16" s="2">
-        <v>3.451325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>3.4513250000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>2.069165</v>
+        <v>2.0691649999999999</v>
       </c>
       <c r="C17" s="2">
         <v>1.59843</v>
       </c>
       <c r="D17" s="2">
-        <v>3.752198</v>
+        <v>3.7521979999999999</v>
       </c>
       <c r="E17" s="2">
-        <v>2.356206</v>
+        <v>2.3562059999999998</v>
       </c>
       <c r="F17" s="2">
-        <v>4.88454</v>
+        <v>4.8845400000000003</v>
       </c>
       <c r="G17" s="2">
         <v>3.448801</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -803,68 +894,68 @@
         <v>2.046084</v>
       </c>
       <c r="C18" s="2">
-        <v>1.594728</v>
+        <v>1.5947279999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>3.764536</v>
+        <v>3.7645360000000001</v>
       </c>
       <c r="E18" s="2">
-        <v>2.357697</v>
+        <v>2.3576969999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>4.847665</v>
+        <v>4.8476650000000001</v>
       </c>
       <c r="G18" s="2">
-        <v>3.44627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>3.4462700000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>2.040965</v>
+        <v>2.0409649999999999</v>
       </c>
       <c r="C19" s="2">
         <v>1.590128</v>
       </c>
       <c r="D19" s="2">
-        <v>3.772461</v>
+        <v>3.7724609999999998</v>
       </c>
       <c r="E19" s="2">
-        <v>2.369394</v>
+        <v>2.3693939999999998</v>
       </c>
       <c r="F19" s="2">
-        <v>4.865084</v>
+        <v>4.8650840000000004</v>
       </c>
       <c r="G19" s="2">
-        <v>3.44027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>3.4402699999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>2.063289</v>
+        <v>2.0632890000000002</v>
       </c>
       <c r="C20" s="2">
         <v>1.605874</v>
       </c>
       <c r="D20" s="2">
-        <v>3.784892</v>
+        <v>3.7848920000000001</v>
       </c>
       <c r="E20" s="2">
-        <v>2.35959</v>
+        <v>2.3595899999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>4.869293</v>
+        <v>4.8692929999999999</v>
       </c>
       <c r="G20" s="2">
-        <v>3.448092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>3.4480919999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -875,116 +966,116 @@
         <v>1.589369</v>
       </c>
       <c r="D21" s="2">
-        <v>3.77893</v>
+        <v>3.7789299999999999</v>
       </c>
       <c r="E21" s="2">
-        <v>2.379771</v>
+        <v>2.3797709999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>4.889627</v>
+        <v>4.8896269999999999</v>
       </c>
       <c r="G21" s="2">
-        <v>3.451624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>3.4516239999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>2.0521</v>
+        <v>2.0520999999999998</v>
       </c>
       <c r="C22" s="2">
-        <v>1.601115</v>
+        <v>1.6011150000000001</v>
       </c>
       <c r="D22" s="2">
         <v>3.763506</v>
       </c>
       <c r="E22" s="2">
-        <v>2.359136</v>
+        <v>2.3591359999999999</v>
       </c>
       <c r="F22" s="2">
-        <v>4.890518</v>
+        <v>4.8905180000000001</v>
       </c>
       <c r="G22" s="2">
         <v>3.442647</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>2.044548</v>
+        <v>2.0445479999999998</v>
       </c>
       <c r="C23" s="2">
-        <v>1.59462</v>
+        <v>1.5946199999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>3.76483</v>
+        <v>3.7648299999999999</v>
       </c>
       <c r="E23" s="2">
-        <v>2.372352</v>
+        <v>2.3723519999999998</v>
       </c>
       <c r="F23" s="2">
-        <v>4.869657</v>
+        <v>4.8696570000000001</v>
       </c>
       <c r="G23" s="2">
         <v>3.438793</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>2.047756</v>
+        <v>2.0477560000000001</v>
       </c>
       <c r="C24" s="2">
-        <v>1.590841</v>
+        <v>1.5908409999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>3.764137</v>
+        <v>3.7641369999999998</v>
       </c>
       <c r="E24" s="2">
-        <v>2.367256</v>
+        <v>2.3672559999999998</v>
       </c>
       <c r="F24" s="2">
         <v>4.870431</v>
       </c>
       <c r="G24" s="2">
-        <v>3.483583</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>3.4835829999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>2.062689</v>
+        <v>2.0626890000000002</v>
       </c>
       <c r="C25" s="2">
         <v>1.588827</v>
       </c>
       <c r="D25" s="2">
-        <v>3.769518</v>
+        <v>3.7695180000000001</v>
       </c>
       <c r="E25" s="2">
         <v>2.355715</v>
       </c>
       <c r="F25" s="2">
-        <v>4.864758</v>
+        <v>4.8647580000000001</v>
       </c>
       <c r="G25" s="2">
-        <v>3.439509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>3.4395090000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>2.036408</v>
+        <v>2.0364080000000002</v>
       </c>
       <c r="C26" s="2">
         <v>1.590279</v>
@@ -993,39 +1084,39 @@
         <v>3.751001</v>
       </c>
       <c r="E26" s="2">
-        <v>2.360459</v>
+        <v>2.3604590000000001</v>
       </c>
       <c r="F26" s="2">
-        <v>4.867954</v>
+        <v>4.8679540000000001</v>
       </c>
       <c r="G26" s="2">
         <v>3.466996</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>2.046137</v>
+        <v>2.0461369999999999</v>
       </c>
       <c r="C27" s="2">
         <v>1.590355</v>
       </c>
       <c r="D27" s="2">
-        <v>3.756896</v>
+        <v>3.7568959999999998</v>
       </c>
       <c r="E27" s="2">
-        <v>2.361392</v>
+        <v>2.3613919999999999</v>
       </c>
       <c r="F27" s="2">
-        <v>4.890882</v>
+        <v>4.8908820000000004</v>
       </c>
       <c r="G27" s="2">
-        <v>3.448837</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>3.4488370000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1036,93 +1127,93 @@
         <v>1.591701</v>
       </c>
       <c r="D28" s="2">
-        <v>3.757081</v>
+        <v>3.7570809999999999</v>
       </c>
       <c r="E28" s="2">
-        <v>2.364656</v>
+        <v>2.3646560000000001</v>
       </c>
       <c r="F28" s="2">
-        <v>4.851233</v>
+        <v>4.8512329999999997</v>
       </c>
       <c r="G28" s="2">
-        <v>3.436373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>3.4363730000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>2.03696</v>
+        <v>2.0369600000000001</v>
       </c>
       <c r="C29" s="2">
         <v>1.585769</v>
       </c>
       <c r="D29" s="2">
-        <v>3.759208</v>
+        <v>3.7592080000000001</v>
       </c>
       <c r="E29" s="2">
-        <v>2.36254</v>
+        <v>2.3625400000000001</v>
       </c>
       <c r="F29" s="2">
-        <v>4.84391</v>
+        <v>4.8439100000000002</v>
       </c>
       <c r="G29" s="2">
-        <v>3.44246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>3.4424600000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>2.037084</v>
+        <v>2.0370840000000001</v>
       </c>
       <c r="C30" s="2">
         <v>1.601108</v>
       </c>
       <c r="D30" s="2">
-        <v>3.767999</v>
+        <v>3.7679990000000001</v>
       </c>
       <c r="E30" s="2">
         <v>2.351518</v>
       </c>
       <c r="F30" s="2">
-        <v>4.84714</v>
+        <v>4.8471399999999996</v>
       </c>
       <c r="G30" s="2">
-        <v>3.453923</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>3.4539230000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>2.033934</v>
+        <v>2.0339339999999999</v>
       </c>
       <c r="C31" s="2">
-        <v>1.590868</v>
+        <v>1.5908679999999999</v>
       </c>
       <c r="D31" s="2">
-        <v>3.749328</v>
+        <v>3.7493280000000002</v>
       </c>
       <c r="E31" s="2">
-        <v>2.355263</v>
+        <v>2.3552629999999999</v>
       </c>
       <c r="F31" s="2">
-        <v>4.859736</v>
+        <v>4.8597359999999998</v>
       </c>
       <c r="G31" s="2">
-        <v>3.449088</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>3.4490880000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>2.027029</v>
+        <v>2.0270290000000002</v>
       </c>
       <c r="C32" s="2">
         <v>1.595307</v>
@@ -1131,67 +1222,67 @@
         <v>3.765638</v>
       </c>
       <c r="E32" s="2">
-        <v>2.357462</v>
+        <v>2.3574619999999999</v>
       </c>
       <c r="F32" s="2">
-        <v>4.85017</v>
+        <v>4.8501700000000003</v>
       </c>
       <c r="G32" s="2">
-        <v>3.441781</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>3.4417810000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>2.032805</v>
+        <v>2.0328050000000002</v>
       </c>
       <c r="C33" s="2">
-        <v>1.592188</v>
+        <v>1.5921879999999999</v>
       </c>
       <c r="D33" s="2">
-        <v>3.75798</v>
+        <v>3.7579799999999999</v>
       </c>
       <c r="E33" s="2">
-        <v>2.365805</v>
+        <v>2.3658049999999999</v>
       </c>
       <c r="F33" s="2">
-        <v>4.848365</v>
+        <v>4.8483650000000003</v>
       </c>
       <c r="G33" s="2">
-        <v>3.434081</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>3.4340809999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>2.043436</v>
+        <v>2.0434359999999998</v>
       </c>
       <c r="C34" s="2">
         <v>1.590603</v>
       </c>
       <c r="D34" s="2">
-        <v>3.759805</v>
+        <v>3.7598050000000001</v>
       </c>
       <c r="E34" s="2">
         <v>2.353011</v>
       </c>
       <c r="F34" s="2">
-        <v>4.844243</v>
+        <v>4.8442429999999996</v>
       </c>
       <c r="G34" s="2">
-        <v>3.431847</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>3.4318469999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>2.036211</v>
+        <v>2.0362110000000002</v>
       </c>
       <c r="C35" s="2">
         <v>1.589513</v>
@@ -1200,154 +1291,154 @@
         <v>3.758537</v>
       </c>
       <c r="E35" s="2">
-        <v>2.356207</v>
+        <v>2.3562069999999999</v>
       </c>
       <c r="F35" s="2">
-        <v>4.847268</v>
+        <v>4.8472679999999997</v>
       </c>
       <c r="G35" s="2">
-        <v>3.441367</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>3.4413670000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>2.035375</v>
+        <v>2.0353750000000002</v>
       </c>
       <c r="C36" s="2">
-        <v>1.597992</v>
+        <v>1.5979920000000001</v>
       </c>
       <c r="D36" s="2">
-        <v>3.747459</v>
+        <v>3.7474590000000001</v>
       </c>
       <c r="E36" s="2">
-        <v>2.35598</v>
+        <v>2.3559800000000002</v>
       </c>
       <c r="F36" s="2">
-        <v>4.848985</v>
+        <v>4.8489849999999999</v>
       </c>
       <c r="G36" s="2">
-        <v>3.445444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>3.4454440000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>2.041683</v>
+        <v>2.0416829999999999</v>
       </c>
       <c r="C37" s="2">
         <v>1.585469</v>
       </c>
       <c r="D37" s="2">
-        <v>3.757211</v>
+        <v>3.7572109999999999</v>
       </c>
       <c r="E37" s="2">
-        <v>2.351452</v>
+        <v>2.3514520000000001</v>
       </c>
       <c r="F37" s="2">
-        <v>4.858906</v>
+        <v>4.8589060000000002</v>
       </c>
       <c r="G37" s="2">
-        <v>3.430433</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>3.4304329999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>2.037052</v>
+        <v>2.0370520000000001</v>
       </c>
       <c r="C38" s="2">
         <v>1.588009</v>
       </c>
       <c r="D38" s="2">
-        <v>3.749328</v>
+        <v>3.7493280000000002</v>
       </c>
       <c r="E38" s="2">
-        <v>2.371587</v>
+        <v>2.3715869999999999</v>
       </c>
       <c r="F38" s="2">
-        <v>4.849852</v>
+        <v>4.8498520000000003</v>
       </c>
       <c r="G38" s="2">
-        <v>3.442347</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>3.4423469999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>2.03319</v>
+        <v>2.0331899999999998</v>
       </c>
       <c r="C39" s="2">
-        <v>1.594802</v>
+        <v>1.5948020000000001</v>
       </c>
       <c r="D39" s="2">
         <v>3.753301</v>
       </c>
       <c r="E39" s="2">
-        <v>2.352485</v>
+        <v>2.3524850000000002</v>
       </c>
       <c r="F39" s="2">
-        <v>4.859586</v>
+        <v>4.8595860000000002</v>
       </c>
       <c r="G39" s="2">
         <v>3.447343</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>2.062331</v>
+        <v>2.0623309999999999</v>
       </c>
       <c r="C40" s="2">
         <v>1.607486</v>
       </c>
       <c r="D40" s="2">
-        <v>3.766976</v>
+        <v>3.7669760000000001</v>
       </c>
       <c r="E40" s="2">
-        <v>2.36583</v>
+        <v>2.3658299999999999</v>
       </c>
       <c r="F40" s="2">
-        <v>4.841924</v>
+        <v>4.8419239999999997</v>
       </c>
       <c r="G40" s="2">
-        <v>3.446356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>3.4463560000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>2.045984</v>
+        <v>2.0459839999999998</v>
       </c>
       <c r="C41" s="2">
-        <v>1.601409</v>
+        <v>1.6014090000000001</v>
       </c>
       <c r="D41" s="2">
-        <v>3.747269</v>
+        <v>3.7472690000000002</v>
       </c>
       <c r="E41" s="2">
-        <v>2.354132</v>
+        <v>2.3541319999999999</v>
       </c>
       <c r="F41" s="2">
-        <v>4.843054</v>
+        <v>4.8430540000000004</v>
       </c>
       <c r="G41" s="2">
-        <v>3.465977</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>3.4659770000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1358,56 +1449,56 @@
         <v>1.607362</v>
       </c>
       <c r="D42" s="2">
-        <v>3.752998</v>
+        <v>3.7529979999999998</v>
       </c>
       <c r="E42" s="2">
-        <v>2.352157</v>
+        <v>2.3521570000000001</v>
       </c>
       <c r="F42" s="2">
-        <v>4.851099</v>
+        <v>4.8510989999999996</v>
       </c>
       <c r="G42" s="2">
-        <v>3.435023</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>3.4350230000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>2.044989</v>
+        <v>2.0449890000000002</v>
       </c>
       <c r="C43" s="2">
         <v>1.596506</v>
       </c>
       <c r="D43" s="2">
-        <v>3.75534</v>
+        <v>3.7553399999999999</v>
       </c>
       <c r="E43" s="2">
-        <v>2.360871</v>
+        <v>2.3608709999999999</v>
       </c>
       <c r="F43" s="2">
-        <v>4.858442</v>
+        <v>4.8584420000000001</v>
       </c>
       <c r="G43" s="2">
-        <v>3.434619</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>3.4346190000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>2.038432</v>
+        <v>2.0384319999999998</v>
       </c>
       <c r="C44" s="2">
         <v>1.590398</v>
       </c>
       <c r="D44" s="2">
-        <v>3.768673</v>
+        <v>3.7686730000000002</v>
       </c>
       <c r="E44" s="2">
-        <v>2.359386</v>
+        <v>2.3593860000000002</v>
       </c>
       <c r="F44" s="2">
         <v>4.846336</v>
@@ -1416,76 +1507,76 @@
         <v>3.456798</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>2.062294</v>
+        <v>2.0622940000000001</v>
       </c>
       <c r="C45" s="2">
         <v>1.611353</v>
       </c>
       <c r="D45" s="2">
-        <v>3.776864</v>
+        <v>3.7768640000000002</v>
       </c>
       <c r="E45" s="2">
-        <v>2.354722</v>
+        <v>2.3547220000000002</v>
       </c>
       <c r="F45" s="2">
-        <v>4.854331</v>
+        <v>4.8543310000000002</v>
       </c>
       <c r="G45" s="2">
-        <v>3.435334</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>3.4353340000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>2.049201</v>
+        <v>2.0492010000000001</v>
       </c>
       <c r="C46" s="2">
-        <v>1.588874</v>
+        <v>1.5888739999999999</v>
       </c>
       <c r="D46" s="2">
         <v>3.752027</v>
       </c>
       <c r="E46" s="2">
-        <v>2.356027</v>
+        <v>2.3560270000000001</v>
       </c>
       <c r="F46" s="2">
-        <v>4.868247</v>
+        <v>4.8682470000000002</v>
       </c>
       <c r="G46" s="2">
-        <v>3.43697</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>3.4369700000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>2.033278</v>
+        <v>2.0332780000000001</v>
       </c>
       <c r="C47" s="2">
         <v>1.590319</v>
       </c>
       <c r="D47" s="2">
-        <v>3.749813</v>
+        <v>3.7498130000000001</v>
       </c>
       <c r="E47" s="2">
-        <v>2.35628</v>
+        <v>2.3562799999999999</v>
       </c>
       <c r="F47" s="2">
-        <v>4.851512</v>
+        <v>4.8515119999999996</v>
       </c>
       <c r="G47" s="2">
-        <v>3.443941</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>3.4439410000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1493,45 +1584,45 @@
         <v>2.053293</v>
       </c>
       <c r="C48" s="2">
-        <v>1.592663</v>
+        <v>1.5926629999999999</v>
       </c>
       <c r="D48" s="2">
-        <v>3.762776</v>
+        <v>3.7627760000000001</v>
       </c>
       <c r="E48" s="2">
-        <v>2.361476</v>
+        <v>2.3614760000000001</v>
       </c>
       <c r="F48" s="2">
-        <v>4.854184</v>
+        <v>4.8541840000000001</v>
       </c>
       <c r="G48" s="2">
-        <v>3.444755</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>3.4447549999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>2.043136</v>
+        <v>2.0431360000000001</v>
       </c>
       <c r="C49" s="2">
         <v>1.589928</v>
       </c>
       <c r="D49" s="2">
-        <v>3.754481</v>
+        <v>3.7544810000000002</v>
       </c>
       <c r="E49" s="2">
-        <v>2.353435</v>
+        <v>2.3534350000000002</v>
       </c>
       <c r="F49" s="2">
-        <v>4.847346</v>
+        <v>4.8473459999999999</v>
       </c>
       <c r="G49" s="2">
-        <v>3.445558</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>3.4455580000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1542,7 +1633,7 @@
         <v>1.599888</v>
       </c>
       <c r="D50" s="2">
-        <v>3.754866</v>
+        <v>3.7548659999999998</v>
       </c>
       <c r="E50" s="2">
         <v>2.356274</v>
@@ -1551,56 +1642,56 @@
         <v>4.839321</v>
       </c>
       <c r="G50" s="2">
-        <v>3.441727</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>3.4417270000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>2.051338</v>
+        <v>2.0513379999999999</v>
       </c>
       <c r="C51" s="2">
-        <v>1.594437</v>
+        <v>1.5944370000000001</v>
       </c>
       <c r="D51" s="2">
-        <v>3.753108</v>
+        <v>3.7531080000000001</v>
       </c>
       <c r="E51" s="2">
-        <v>2.359497</v>
+        <v>2.3594970000000002</v>
       </c>
       <c r="F51" s="2">
-        <v>4.844172</v>
+        <v>4.8441720000000004</v>
       </c>
       <c r="G51" s="2">
-        <v>3.443958</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>3.4439579999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>2.039184</v>
+        <v>2.0391840000000001</v>
       </c>
       <c r="C52" s="2">
         <v>1.595108</v>
       </c>
       <c r="D52" s="2">
-        <v>3.756219</v>
+        <v>3.7562190000000002</v>
       </c>
       <c r="E52" s="2">
-        <v>2.359454</v>
+        <v>2.3594539999999999</v>
       </c>
       <c r="F52" s="2">
-        <v>4.854745</v>
+        <v>4.8547450000000003</v>
       </c>
       <c r="G52" s="2">
-        <v>3.447933</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>3.4479329999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1608,99 +1699,99 @@
         <v>2.047739</v>
       </c>
       <c r="C53" s="2">
-        <v>1.597814</v>
+        <v>1.5978140000000001</v>
       </c>
       <c r="D53" s="2">
         <v>3.774956</v>
       </c>
       <c r="E53" s="2">
-        <v>2.367085</v>
+        <v>2.3670849999999999</v>
       </c>
       <c r="F53" s="2">
-        <v>4.858368</v>
+        <v>4.8583679999999996</v>
       </c>
       <c r="G53" s="2">
-        <v>3.459839</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>3.4598390000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>2.037421</v>
+        <v>2.0374210000000001</v>
       </c>
       <c r="C54" s="2">
-        <v>1.596423</v>
+        <v>1.5964229999999999</v>
       </c>
       <c r="D54" s="2">
-        <v>3.790951</v>
+        <v>3.7909510000000002</v>
       </c>
       <c r="E54" s="2">
         <v>2.363918</v>
       </c>
       <c r="F54" s="2">
-        <v>4.886887</v>
+        <v>4.8868869999999998</v>
       </c>
       <c r="G54" s="2">
-        <v>3.458104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>3.4581040000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>2.053861</v>
+        <v>2.0538609999999999</v>
       </c>
       <c r="C55" s="2">
         <v>1.617011</v>
       </c>
       <c r="D55" s="2">
-        <v>3.764887</v>
+        <v>3.7648869999999999</v>
       </c>
       <c r="E55" s="2">
         <v>2.36991</v>
       </c>
       <c r="F55" s="2">
-        <v>4.872375</v>
+        <v>4.8723749999999999</v>
       </c>
       <c r="G55" s="2">
         <v>3.451009</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>2.063017</v>
+        <v>2.0630169999999999</v>
       </c>
       <c r="C56" s="2">
-        <v>1.595414</v>
+        <v>1.5954140000000001</v>
       </c>
       <c r="D56" s="2">
-        <v>3.771343</v>
+        <v>3.7713429999999999</v>
       </c>
       <c r="E56" s="2">
         <v>2.359337</v>
       </c>
       <c r="F56" s="2">
-        <v>4.905791</v>
+        <v>4.9057909999999998</v>
       </c>
       <c r="G56" s="2">
-        <v>3.450738</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>3.4507379999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>2.038184</v>
+        <v>2.0381840000000002</v>
       </c>
       <c r="C57" s="2">
-        <v>1.598423</v>
+        <v>1.5984229999999999</v>
       </c>
       <c r="D57" s="2">
         <v>3.765892</v>
@@ -1709,13 +1800,13 @@
         <v>2.358025</v>
       </c>
       <c r="F57" s="2">
-        <v>4.86652</v>
+        <v>4.8665200000000004</v>
       </c>
       <c r="G57" s="2">
         <v>3.447289</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1732,13 +1823,13 @@
         <v>2.369796</v>
       </c>
       <c r="F58" s="2">
-        <v>4.906304</v>
+        <v>4.9063040000000004</v>
       </c>
       <c r="G58" s="2">
-        <v>3.464135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>3.4641350000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1752,62 +1843,62 @@
         <v>3.790467</v>
       </c>
       <c r="E59" s="2">
-        <v>2.361654</v>
+        <v>2.3616540000000001</v>
       </c>
       <c r="F59" s="2">
-        <v>4.896573</v>
+        <v>4.8965730000000001</v>
       </c>
       <c r="G59" s="2">
         <v>3.440925</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>2.034501</v>
+        <v>2.0345010000000001</v>
       </c>
       <c r="C60" s="2">
-        <v>1.599023</v>
+        <v>1.5990230000000001</v>
       </c>
       <c r="D60" s="2">
-        <v>3.774153</v>
+        <v>3.7741530000000001</v>
       </c>
       <c r="E60" s="2">
-        <v>2.3664</v>
+        <v>2.3664000000000001</v>
       </c>
       <c r="F60" s="2">
-        <v>4.874741</v>
+        <v>4.8747410000000002</v>
       </c>
       <c r="G60" s="2">
-        <v>3.475847</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>3.4758469999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>2.03711</v>
+        <v>2.0371100000000002</v>
       </c>
       <c r="C61" s="2">
-        <v>1.589166</v>
+        <v>1.5891660000000001</v>
       </c>
       <c r="D61" s="2">
-        <v>3.770665</v>
+        <v>3.7706650000000002</v>
       </c>
       <c r="E61" s="2">
-        <v>2.361231</v>
+        <v>2.3612310000000001</v>
       </c>
       <c r="F61" s="2">
         <v>4.869605</v>
       </c>
       <c r="G61" s="2">
-        <v>3.442318</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>3.4423180000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1815,22 +1906,22 @@
         <v>2.034904</v>
       </c>
       <c r="C62" s="2">
-        <v>1.623925</v>
+        <v>1.6239250000000001</v>
       </c>
       <c r="D62" s="2">
-        <v>3.800324</v>
+        <v>3.8003239999999998</v>
       </c>
       <c r="E62" s="2">
-        <v>2.397505</v>
+        <v>2.3975050000000002</v>
       </c>
       <c r="F62" s="2">
-        <v>4.877598</v>
+        <v>4.8775979999999999</v>
       </c>
       <c r="G62" s="2">
-        <v>3.437221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>3.4372210000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1841,42 +1932,42 @@
         <v>1.602743</v>
       </c>
       <c r="D63" s="2">
-        <v>3.78235</v>
+        <v>3.7823500000000001</v>
       </c>
       <c r="E63" s="2">
-        <v>2.368241</v>
+        <v>2.3682409999999998</v>
       </c>
       <c r="F63" s="2">
-        <v>4.858777</v>
+        <v>4.8587769999999999</v>
       </c>
       <c r="G63" s="2">
-        <v>3.449971</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>3.4499710000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>2.040557</v>
+        <v>2.0405570000000002</v>
       </c>
       <c r="C64" s="2">
-        <v>1.606259</v>
+        <v>1.6062590000000001</v>
       </c>
       <c r="D64" s="2">
-        <v>3.790799</v>
+        <v>3.7907989999999998</v>
       </c>
       <c r="E64" s="2">
-        <v>2.374362</v>
+        <v>2.3743620000000001</v>
       </c>
       <c r="F64" s="2">
-        <v>4.86454</v>
+        <v>4.8645399999999999</v>
       </c>
       <c r="G64" s="2">
-        <v>3.444634</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>3.4446340000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1899,99 +1990,99 @@
         <v>3.451921</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>2.034855</v>
+        <v>2.0348549999999999</v>
       </c>
       <c r="C66" s="2">
         <v>1.594425</v>
       </c>
       <c r="D66" s="2">
-        <v>3.768798</v>
+        <v>3.7687979999999999</v>
       </c>
       <c r="E66" s="2">
         <v>2.366768</v>
       </c>
       <c r="F66" s="2">
-        <v>4.874111</v>
+        <v>4.8741110000000001</v>
       </c>
       <c r="G66" s="2">
-        <v>3.442317</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>3.4423170000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>2.045416</v>
+        <v>2.0454159999999999</v>
       </c>
       <c r="C67" s="2">
-        <v>1.587306</v>
+        <v>1.5873060000000001</v>
       </c>
       <c r="D67" s="2">
-        <v>3.756306</v>
+        <v>3.7563059999999999</v>
       </c>
       <c r="E67" s="2">
         <v>2.36964</v>
       </c>
       <c r="F67" s="2">
-        <v>4.863915</v>
+        <v>4.8639150000000004</v>
       </c>
       <c r="G67" s="2">
         <v>3.444731</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>2.027565</v>
+        <v>2.0275650000000001</v>
       </c>
       <c r="C68" s="2">
-        <v>1.594764</v>
+        <v>1.5947640000000001</v>
       </c>
       <c r="D68" s="2">
-        <v>3.764263</v>
+        <v>3.7642630000000001</v>
       </c>
       <c r="E68" s="2">
-        <v>2.360047</v>
+        <v>2.3600469999999998</v>
       </c>
       <c r="F68" s="2">
-        <v>4.851544</v>
+        <v>4.8515439999999996</v>
       </c>
       <c r="G68" s="2">
-        <v>3.43911</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>3.4391099999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>2.02898</v>
+        <v>2.0289799999999998</v>
       </c>
       <c r="C69" s="2">
-        <v>1.623433</v>
+        <v>1.6234329999999999</v>
       </c>
       <c r="D69" s="2">
-        <v>3.75751</v>
+        <v>3.7575099999999999</v>
       </c>
       <c r="E69" s="2">
-        <v>2.355577</v>
+        <v>2.3555769999999998</v>
       </c>
       <c r="F69" s="2">
-        <v>4.854458</v>
+        <v>4.8544580000000002</v>
       </c>
       <c r="G69" s="2">
-        <v>3.451214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>3.4512139999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1999,27 +2090,27 @@
         <v>2.069985</v>
       </c>
       <c r="C70" s="2">
-        <v>1.59804</v>
+        <v>1.5980399999999999</v>
       </c>
       <c r="D70" s="2">
         <v>3.763001</v>
       </c>
       <c r="E70" s="2">
-        <v>2.353447</v>
+        <v>2.3534470000000001</v>
       </c>
       <c r="F70" s="2">
-        <v>4.842843</v>
+        <v>4.8428430000000002</v>
       </c>
       <c r="G70" s="2">
-        <v>3.450212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>3.4502120000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>2.04131</v>
+        <v>2.0413100000000002</v>
       </c>
       <c r="C71" s="2">
         <v>1.588749</v>
@@ -2031,73 +2122,73 @@
         <v>2.358406</v>
       </c>
       <c r="F71" s="2">
-        <v>4.869187</v>
+        <v>4.8691870000000002</v>
       </c>
       <c r="G71" s="2">
-        <v>3.446922</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>3.4469219999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>2.042991</v>
+        <v>2.0429909999999998</v>
       </c>
       <c r="C72" s="2">
-        <v>1.589705</v>
+        <v>1.5897049999999999</v>
       </c>
       <c r="D72" s="2">
         <v>3.763252</v>
       </c>
       <c r="E72" s="2">
-        <v>2.366799</v>
+        <v>2.3667989999999999</v>
       </c>
       <c r="F72" s="2">
-        <v>4.845863</v>
+        <v>4.8458629999999996</v>
       </c>
       <c r="G72" s="2">
-        <v>3.442017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>3.4420169999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>2.042979</v>
+        <v>2.0429789999999999</v>
       </c>
       <c r="C73" s="2">
-        <v>1.606137</v>
+        <v>1.6061369999999999</v>
       </c>
       <c r="D73" s="2">
-        <v>3.777506</v>
+        <v>3.7775059999999998</v>
       </c>
       <c r="E73" s="2">
         <v>2.364779</v>
       </c>
       <c r="F73" s="2">
-        <v>4.859504</v>
+        <v>4.8595040000000003</v>
       </c>
       <c r="G73" s="2">
         <v>3.449198</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>2.040326</v>
+        <v>2.0403259999999999</v>
       </c>
       <c r="C74" s="2">
-        <v>1.600582</v>
+        <v>1.6005819999999999</v>
       </c>
       <c r="D74" s="2">
         <v>3.777523</v>
       </c>
       <c r="E74" s="2">
-        <v>2.354059</v>
+        <v>2.3540589999999999</v>
       </c>
       <c r="F74" s="2">
         <v>4.849005</v>
@@ -2106,76 +2197,76 @@
         <v>3.444064</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>2.038142</v>
+        <v>2.0381420000000001</v>
       </c>
       <c r="C75" s="2">
         <v>1.600776</v>
       </c>
       <c r="D75" s="2">
-        <v>3.757883</v>
+        <v>3.7578830000000001</v>
       </c>
       <c r="E75" s="2">
-        <v>2.359652</v>
+        <v>2.3596520000000001</v>
       </c>
       <c r="F75" s="2">
-        <v>4.891606</v>
+        <v>4.8916060000000003</v>
       </c>
       <c r="G75" s="2">
-        <v>3.454842</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>3.4548420000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>2.043905</v>
+        <v>2.0439050000000001</v>
       </c>
       <c r="C76" s="2">
-        <v>1.596539</v>
+        <v>1.5965389999999999</v>
       </c>
       <c r="D76" s="2">
-        <v>3.782922</v>
+        <v>3.7829220000000001</v>
       </c>
       <c r="E76" s="2">
-        <v>2.358918</v>
+        <v>2.3589180000000001</v>
       </c>
       <c r="F76" s="2">
-        <v>4.850325</v>
+        <v>4.8503249999999998</v>
       </c>
       <c r="G76" s="2">
-        <v>3.450505</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>3.4505050000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>2.029136</v>
+        <v>2.0291359999999998</v>
       </c>
       <c r="C77" s="2">
-        <v>1.596731</v>
+        <v>1.5967309999999999</v>
       </c>
       <c r="D77" s="2">
-        <v>3.76814</v>
+        <v>3.7681399999999998</v>
       </c>
       <c r="E77" s="2">
-        <v>2.359595</v>
+        <v>2.3595950000000001</v>
       </c>
       <c r="F77" s="2">
-        <v>4.864537</v>
+        <v>4.8645370000000003</v>
       </c>
       <c r="G77" s="2">
-        <v>3.447875</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>3.4478749999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2192,59 +2283,59 @@
         <v>2.363143</v>
       </c>
       <c r="F78" s="2">
-        <v>4.850795</v>
+        <v>4.8507949999999997</v>
       </c>
       <c r="G78" s="2">
-        <v>3.450586</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>3.4505859999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>2.029041</v>
+        <v>2.0290409999999999</v>
       </c>
       <c r="C79" s="2">
-        <v>1.611927</v>
+        <v>1.6119270000000001</v>
       </c>
       <c r="D79" s="2">
         <v>3.789234</v>
       </c>
       <c r="E79" s="2">
-        <v>2.365238</v>
+        <v>2.3652380000000002</v>
       </c>
       <c r="F79" s="2">
-        <v>4.888673</v>
+        <v>4.8886729999999998</v>
       </c>
       <c r="G79" s="2">
-        <v>3.445027</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>3.4450270000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>2.024528</v>
+        <v>2.0245280000000001</v>
       </c>
       <c r="C80" s="2">
         <v>1.608501</v>
       </c>
       <c r="D80" s="2">
-        <v>3.764905</v>
+        <v>3.7649050000000002</v>
       </c>
       <c r="E80" s="2">
-        <v>2.35567</v>
+        <v>2.3556699999999999</v>
       </c>
       <c r="F80" s="2">
-        <v>4.858649</v>
+        <v>4.8586489999999998</v>
       </c>
       <c r="G80" s="2">
-        <v>3.456383</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>3.4563830000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2252,114 +2343,114 @@
         <v>2.030062</v>
       </c>
       <c r="C81" s="2">
-        <v>1.602234</v>
+        <v>1.6022339999999999</v>
       </c>
       <c r="D81" s="2">
         <v>3.760446</v>
       </c>
       <c r="E81" s="2">
-        <v>2.353136</v>
+        <v>2.3531360000000001</v>
       </c>
       <c r="F81" s="2">
-        <v>4.864564</v>
+        <v>4.8645639999999997</v>
       </c>
       <c r="G81" s="2">
-        <v>3.440676</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>3.4406759999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>2.028055</v>
+        <v>2.0280550000000002</v>
       </c>
       <c r="C82" s="2">
         <v>1.586919</v>
       </c>
       <c r="D82" s="2">
-        <v>3.754484</v>
+        <v>3.7544840000000002</v>
       </c>
       <c r="E82" s="2">
-        <v>2.36272</v>
+        <v>2.3627199999999999</v>
       </c>
       <c r="F82" s="2">
-        <v>4.850391</v>
+        <v>4.8503910000000001</v>
       </c>
       <c r="G82" s="2">
-        <v>3.434505</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>3.4345050000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>2.032047</v>
+        <v>2.0320469999999999</v>
       </c>
       <c r="C83" s="2">
-        <v>1.59356</v>
+        <v>1.5935600000000001</v>
       </c>
       <c r="D83" s="2">
-        <v>3.767672</v>
+        <v>3.7676720000000001</v>
       </c>
       <c r="E83" s="2">
         <v>2.362908</v>
       </c>
       <c r="F83" s="2">
-        <v>4.858772</v>
+        <v>4.8587720000000001</v>
       </c>
       <c r="G83" s="2">
         <v>3.433443</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>2.040293</v>
+        <v>2.0402930000000001</v>
       </c>
       <c r="C84" s="2">
         <v>1.596047</v>
       </c>
       <c r="D84" s="2">
-        <v>3.758465</v>
+        <v>3.7584650000000002</v>
       </c>
       <c r="E84" s="2">
-        <v>2.35097</v>
+        <v>2.3509699999999998</v>
       </c>
       <c r="F84" s="2">
-        <v>4.845432</v>
+        <v>4.8454319999999997</v>
       </c>
       <c r="G84" s="2">
-        <v>3.441264</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>3.4412639999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>2.033146</v>
+        <v>2.0331459999999999</v>
       </c>
       <c r="C85" s="2">
         <v>1.596579</v>
       </c>
       <c r="D85" s="2">
-        <v>3.763066</v>
+        <v>3.7630659999999998</v>
       </c>
       <c r="E85" s="2">
-        <v>2.351649</v>
+        <v>2.3516490000000001</v>
       </c>
       <c r="F85" s="2">
-        <v>4.844783</v>
+        <v>4.8447829999999996</v>
       </c>
       <c r="G85" s="2">
-        <v>3.451036</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>3.4510360000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2367,13 +2458,13 @@
         <v>2.029579</v>
       </c>
       <c r="C86" s="2">
-        <v>1.599306</v>
+        <v>1.5993059999999999</v>
       </c>
       <c r="D86" s="2">
-        <v>3.761907</v>
+        <v>3.7619069999999999</v>
       </c>
       <c r="E86" s="2">
-        <v>2.361734</v>
+        <v>2.3617340000000002</v>
       </c>
       <c r="F86" s="2">
         <v>4.85473</v>
@@ -2382,38 +2473,38 @@
         <v>3.442472</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>2.036749</v>
+        <v>2.0367489999999999</v>
       </c>
       <c r="C87" s="2">
-        <v>1.596358</v>
+        <v>1.5963579999999999</v>
       </c>
       <c r="D87" s="2">
-        <v>3.779507</v>
+        <v>3.7795070000000002</v>
       </c>
       <c r="E87" s="2">
-        <v>2.362579</v>
+        <v>2.3625790000000002</v>
       </c>
       <c r="F87" s="2">
-        <v>4.853757</v>
+        <v>4.8537569999999999</v>
       </c>
       <c r="G87" s="2">
-        <v>3.439932</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>3.4399320000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>2.03161</v>
+        <v>2.0316100000000001</v>
       </c>
       <c r="C88" s="2">
-        <v>1.599449</v>
+        <v>1.5994489999999999</v>
       </c>
       <c r="D88" s="2">
         <v>3.768367</v>
@@ -2422,13 +2513,13 @@
         <v>2.357415</v>
       </c>
       <c r="F88" s="2">
-        <v>4.850807</v>
+        <v>4.8508069999999996</v>
       </c>
       <c r="G88" s="2">
-        <v>3.46154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>3.4615399999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2439,157 +2530,157 @@
         <v>1.589799</v>
       </c>
       <c r="D89" s="2">
-        <v>3.754793</v>
+        <v>3.7547929999999998</v>
       </c>
       <c r="E89" s="2">
-        <v>2.362126</v>
+        <v>2.3621259999999999</v>
       </c>
       <c r="F89" s="2">
-        <v>4.867047</v>
+        <v>4.8670470000000003</v>
       </c>
       <c r="G89" s="2">
-        <v>3.44389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>3.4438900000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>2.035604</v>
+        <v>2.0356040000000002</v>
       </c>
       <c r="C90" s="2">
         <v>1.601888</v>
       </c>
       <c r="D90" s="2">
-        <v>3.75419</v>
+        <v>3.7541899999999999</v>
       </c>
       <c r="E90" s="2">
-        <v>2.3537</v>
+        <v>2.3536999999999999</v>
       </c>
       <c r="F90" s="2">
-        <v>4.840996</v>
+        <v>4.8409959999999996</v>
       </c>
       <c r="G90" s="2">
-        <v>3.444393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>3.4443929999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>2.024446</v>
+        <v>2.0244460000000002</v>
       </c>
       <c r="C91" s="2">
-        <v>1.5852</v>
+        <v>1.5851999999999999</v>
       </c>
       <c r="D91" s="2">
-        <v>3.747279</v>
+        <v>3.7472789999999998</v>
       </c>
       <c r="E91" s="2">
-        <v>2.358607</v>
+        <v>2.3586070000000001</v>
       </c>
       <c r="F91" s="2">
-        <v>4.866445</v>
+        <v>4.8664449999999997</v>
       </c>
       <c r="G91" s="2">
-        <v>3.434497</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>3.4344969999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>2.026954</v>
+        <v>2.0269539999999999</v>
       </c>
       <c r="C92" s="2">
         <v>1.585623</v>
       </c>
       <c r="D92" s="2">
-        <v>3.746371</v>
+        <v>3.7463709999999999</v>
       </c>
       <c r="E92" s="2">
         <v>2.373599</v>
       </c>
       <c r="F92" s="2">
-        <v>4.879523</v>
+        <v>4.8795229999999998</v>
       </c>
       <c r="G92" s="2">
         <v>3.451044</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>2.056338</v>
+        <v>2.0563380000000002</v>
       </c>
       <c r="C93" s="2">
-        <v>1.618964</v>
+        <v>1.6189640000000001</v>
       </c>
       <c r="D93" s="2">
-        <v>3.784384</v>
+        <v>3.7843840000000002</v>
       </c>
       <c r="E93" s="2">
         <v>2.359874</v>
       </c>
       <c r="F93" s="2">
-        <v>4.863729</v>
+        <v>4.8637290000000002</v>
       </c>
       <c r="G93" s="2">
-        <v>3.443971</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>3.4439709999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>2.033537</v>
+        <v>2.0335369999999999</v>
       </c>
       <c r="C94" s="2">
-        <v>1.612893</v>
+        <v>1.6128929999999999</v>
       </c>
       <c r="D94" s="2">
-        <v>3.768515</v>
+        <v>3.7685149999999998</v>
       </c>
       <c r="E94" s="2">
-        <v>2.371888</v>
+        <v>2.3718880000000002</v>
       </c>
       <c r="F94" s="2">
-        <v>4.862384</v>
+        <v>4.8623839999999996</v>
       </c>
       <c r="G94" s="2">
         <v>3.451657</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>2.031293</v>
+        <v>2.0312929999999998</v>
       </c>
       <c r="C95" s="2">
-        <v>1.592213</v>
+        <v>1.5922130000000001</v>
       </c>
       <c r="D95" s="2">
         <v>3.755169</v>
       </c>
       <c r="E95" s="2">
-        <v>2.363614</v>
+        <v>2.3636140000000001</v>
       </c>
       <c r="F95" s="2">
-        <v>4.862373</v>
+        <v>4.8623729999999998</v>
       </c>
       <c r="G95" s="2">
         <v>3.445951</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2597,22 +2688,22 @@
         <v>2.034176</v>
       </c>
       <c r="C96" s="2">
-        <v>1.594898</v>
+        <v>1.5948979999999999</v>
       </c>
       <c r="D96" s="2">
         <v>3.771217</v>
       </c>
       <c r="E96" s="2">
-        <v>2.384549</v>
+        <v>2.3845489999999998</v>
       </c>
       <c r="F96" s="2">
-        <v>4.921168</v>
+        <v>4.9211679999999998</v>
       </c>
       <c r="G96" s="2">
-        <v>3.489756</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>3.4897559999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2620,111 +2711,140 @@
         <v>2.043507</v>
       </c>
       <c r="C97" s="2">
-        <v>1.587169</v>
+        <v>1.5871690000000001</v>
       </c>
       <c r="D97" s="2">
-        <v>3.774398</v>
+        <v>3.7743980000000001</v>
       </c>
       <c r="E97" s="2">
-        <v>2.374579</v>
+        <v>2.3745790000000002</v>
       </c>
       <c r="F97" s="2">
         <v>4.866695</v>
       </c>
       <c r="G97" s="2">
-        <v>3.444456</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>3.4444560000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>2.031349</v>
+        <v>2.0313490000000001</v>
       </c>
       <c r="C98" s="2">
         <v>1.587242</v>
       </c>
       <c r="D98" s="2">
-        <v>3.759392</v>
+        <v>3.7593920000000001</v>
       </c>
       <c r="E98" s="2">
-        <v>2.361193</v>
+        <v>2.3611930000000001</v>
       </c>
       <c r="F98" s="2">
-        <v>4.851939</v>
+        <v>4.8519389999999998</v>
       </c>
       <c r="G98" s="2">
         <v>3.439597</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>2.040191</v>
+        <v>2.0401910000000001</v>
       </c>
       <c r="C99" s="2">
-        <v>1.593681</v>
+        <v>1.5936809999999999</v>
       </c>
       <c r="D99" s="2">
-        <v>3.764623</v>
+        <v>3.7646229999999998</v>
       </c>
       <c r="E99" s="2">
-        <v>2.367396</v>
+        <v>2.3673959999999998</v>
       </c>
       <c r="F99" s="2">
-        <v>4.883675</v>
+        <v>4.8836750000000002</v>
       </c>
       <c r="G99" s="2">
-        <v>3.448022</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>3.4480219999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>2.031413</v>
+        <v>2.0314130000000001</v>
       </c>
       <c r="C100" s="2">
-        <v>1.586809</v>
+        <v>1.5868089999999999</v>
       </c>
       <c r="D100" s="2">
-        <v>3.763729</v>
+        <v>3.7637290000000001</v>
       </c>
       <c r="E100" s="2">
-        <v>2.359325</v>
+        <v>2.3593250000000001</v>
       </c>
       <c r="F100" s="2">
-        <v>4.858288</v>
+        <v>4.8582879999999999</v>
       </c>
       <c r="G100" s="2">
-        <v>3.447678</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>3.4476779999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>2.022563</v>
+        <v>2.0225629999999999</v>
       </c>
       <c r="C101" s="2">
-        <v>1.606918</v>
+        <v>1.6069180000000001</v>
       </c>
       <c r="D101" s="2">
-        <v>3.766009</v>
+        <v>3.7660089999999999</v>
       </c>
       <c r="E101" s="2">
-        <v>2.383029</v>
+        <v>2.3830290000000001</v>
       </c>
       <c r="F101" s="2">
-        <v>4.869185</v>
+        <v>4.8691849999999999</v>
       </c>
       <c r="G101" s="2">
-        <v>3.45183</v>
+        <v>3.4518300000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="3">
+        <f>SUBTOTAL(101,Table1[mixed])</f>
+        <v>2.0413268099999997</v>
+      </c>
+      <c r="C102" s="3">
+        <f>SUBTOTAL(101,Table1[mixed optimized])</f>
+        <v>1.59659963</v>
+      </c>
+      <c r="D102" s="3">
+        <f>SUBTOTAL(101,Table1[poly])</f>
+        <v>3.7652934399999998</v>
+      </c>
+      <c r="E102" s="3">
+        <f>SUBTOTAL(101,Table1[poly optimized])</f>
+        <v>2.3622142800000012</v>
+      </c>
+      <c r="F102" s="3">
+        <f>SUBTOTAL(101,Table1[horner])</f>
+        <v>4.86214557</v>
+      </c>
+      <c r="G102" s="3">
+        <f>SUBTOTAL(101,Table1[horner optimized])</f>
+        <v>3.4472851399999995</v>
       </c>
     </row>
   </sheetData>
